--- a/03_Outputs/all/01_TablasDescriptivas/idx15_vejez_vr.xlsx
+++ b/03_Outputs/all/01_TablasDescriptivas/idx15_vejez_vr.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>8.397903188109581</v>
+        <v>8.397903188109593</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.707701851493492</v>
+        <v>1.707701851493494</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.5198032487372631</v>
+        <v>0.5198032487372636</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2206080995670576</v>
+        <v>0.2206080995670574</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.06177935516730166</v>
+        <v>0.06177935516730174</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.05003215984055309</v>
+        <v>0.05003215984055298</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.03651336418512505</v>
+        <v>0.03651336418512512</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.005435436278774112</v>
+        <v>0.005435436278774105</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.0001074254275588506</v>
+        <v>0.0001074254275588517</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>8.828030576880919E-05</v>
+        <v>8.82803057688097E-05</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>2.759088751915905E-05</v>
+        <v>2.759088751915867E-05</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>8.397903188109581</v>
+        <v>8.397903188109593</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>10.10560503960307</v>
+        <v>10.10560503960309</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>10.62540828834033</v>
+        <v>10.62540828834035</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>10.84601638790739</v>
+        <v>10.84601638790741</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>10.90779574307469</v>
+        <v>10.90779574307471</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>10.95782790291525</v>
+        <v>10.95782790291526</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>10.99434126710037</v>
+        <v>10.99434126710039</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>10.99977670337915</v>
+        <v>10.99977670337916</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>10.99988412880671</v>
+        <v>10.99988412880672</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>10.99997240911248</v>
+        <v>10.99997240911249</v>
       </c>
       <c r="C22">
         <v>10</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>10.99999999999999</v>
+        <v>11.00000000000001</v>
       </c>
       <c r="C23">
         <v>11</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>76.34457443735985</v>
+        <v>76.34457443735987</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>4.725484079429667</v>
+        <v>4.725484079429664</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>2.005528177882342</v>
+        <v>2.005528177882338</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.454837816732301</v>
+        <v>0.4548378167322993</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.3319396744102279</v>
+        <v>0.3319396744102281</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>0.04941305707976468</v>
+        <v>0.04941305707976455</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.0009765947959895517</v>
+        <v>0.0009765947959895602</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -944,7 +944,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.000802548234261902</v>
+        <v>0.0008025482342619056</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>0.0002508262501741733</v>
+        <v>0.0002508262501741694</v>
       </c>
       <c r="C34">
         <v>11</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>76.34457443735985</v>
+        <v>76.34457443735987</v>
       </c>
       <c r="C35">
         <v>1</v>
